--- a/Python/Data/EI states emission 2005.xlsx
+++ b/Python/Data/EI states emission 2005.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atpha\Documents\Postdocs\Projects\NETs\Model\EI-CE\Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78E950A-1FCC-4887-9998-FF6A1828AFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4230A4-103E-4FF4-985A-9CFB669DD790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="765" windowWidth="22515" windowHeight="13890" xr2:uid="{34EC84D2-FCB9-4DA5-92D9-B09F548D0151}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34EC84D2-FCB9-4DA5-92D9-B09F548D0151}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="51">
   <si>
     <t>North Dakota</t>
   </si>
@@ -556,63 +558,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3066EE-4496-4869-B64F-FD9A836F0682}">
-  <dimension ref="A1:M44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F1A9BD-1987-450D-90A4-75E3DF083D82}">
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1">
-        <v>0.15</v>
+      <c r="C1" t="s">
+        <v>38</v>
       </c>
       <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -620,41 +629,49 @@
         <v>143.30000000000001</v>
       </c>
       <c r="C2">
-        <f>B2*0.15</f>
-        <v>21.495000000000001</v>
+        <f>B2*1.1</f>
+        <v>157.63000000000002</v>
       </c>
       <c r="D2">
-        <f>C2*1.1</f>
-        <v>23.644500000000004</v>
+        <f>C2*N2</f>
+        <v>157.63000000000002</v>
       </c>
       <c r="E2">
-        <f>D2*L2</f>
-        <v>23.644500000000004</v>
+        <f>B2*1.4</f>
+        <v>200.62</v>
+      </c>
+      <c r="F2">
+        <f>E2*1.1</f>
+        <v>220.68200000000002</v>
       </c>
       <c r="G2">
+        <f>F2*N2</f>
+        <v>220.68200000000002</v>
+      </c>
+      <c r="I2">
         <v>132.80000000000001</v>
       </c>
-      <c r="H2">
-        <f>G2*0.55</f>
+      <c r="J2">
+        <f>I2*0.55</f>
         <v>73.040000000000006</v>
       </c>
-      <c r="I2">
-        <f>G2-G2*0.0225*10</f>
+      <c r="K2">
+        <f>I2-I2*0.0225*10</f>
         <v>102.92000000000002</v>
       </c>
-      <c r="K2" s="2">
+      <c r="M2" s="2">
         <f>44.803*1.1</f>
         <v>49.283300000000004</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3">
-        <f>K2*L2</f>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <f>M2*N2</f>
         <v>49.283300000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -662,41 +679,49 @@
         <v>60.1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C41" si="0">B3*0.15</f>
-        <v>9.0150000000000006</v>
+        <f t="shared" ref="C3:C41" si="0">B3*1.1</f>
+        <v>66.110000000000014</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D41" si="1">C3*1.1</f>
-        <v>9.916500000000001</v>
+        <f t="shared" ref="D3:D41" si="1">C3*N3</f>
+        <v>66.110000000000014</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E41" si="2">D3*L3</f>
-        <v>9.916500000000001</v>
+        <f t="shared" ref="E3:E41" si="2">B3*1.4</f>
+        <v>84.14</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F41" si="3">E3*1.1</f>
+        <v>92.554000000000002</v>
       </c>
       <c r="G3">
+        <f t="shared" ref="G3:G41" si="4">F3*N3</f>
+        <v>92.554000000000002</v>
+      </c>
+      <c r="I3">
         <v>65.8</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H42" si="3">G3*0.55</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J42" si="5">I3*0.55</f>
         <v>36.190000000000005</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I42" si="4">G3-G3*0.0225*10</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K42" si="6">I3-I3*0.0225*10</f>
         <v>50.994999999999997</v>
       </c>
-      <c r="K3" s="2">
+      <c r="M3" s="2">
         <f>23.469*1.1</f>
         <v>25.815900000000003</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3:M41" si="5">K3*L3</f>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O41" si="7">M3*N3</f>
         <v>25.815900000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -705,40 +730,48 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>6.6150000000000002</v>
+        <v>48.510000000000005</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>7.2765000000000004</v>
+        <v>48.510000000000005</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>7.2765000000000004</v>
+        <v>61.739999999999995</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>67.914000000000001</v>
       </c>
       <c r="G4">
+        <f t="shared" si="4"/>
+        <v>67.914000000000001</v>
+      </c>
+      <c r="I4">
         <v>36.299999999999997</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
+      <c r="J4">
+        <f t="shared" si="5"/>
         <v>19.965</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="4"/>
+      <c r="K4">
+        <f t="shared" si="6"/>
         <v>28.1325</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <f>10.186*1.1</f>
         <v>11.204600000000001</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" si="5"/>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="7"/>
         <v>11.204600000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -747,40 +780,48 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>2.52</v>
+        <v>18.480000000000004</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>2.7720000000000002</v>
+        <v>18.480000000000004</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>2.7720000000000002</v>
+        <v>23.52</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>25.872</v>
       </c>
       <c r="G5">
+        <f t="shared" si="4"/>
+        <v>25.872</v>
+      </c>
+      <c r="I5">
         <v>11.3</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
+      <c r="J5">
+        <f t="shared" si="5"/>
         <v>6.2150000000000007</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="4"/>
+      <c r="K5">
+        <f t="shared" si="6"/>
         <v>8.7575000000000003</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <f>2.667*1.1</f>
         <v>2.9337</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" si="5"/>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="7"/>
         <v>2.9337</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -789,40 +830,48 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>39.104999999999997</v>
+        <v>286.77000000000004</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>43.015500000000003</v>
+        <v>286.77000000000004</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>43.015500000000003</v>
+        <v>364.97999999999996</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>401.47800000000001</v>
       </c>
       <c r="G6">
+        <f t="shared" si="4"/>
+        <v>401.47800000000001</v>
+      </c>
+      <c r="I6">
         <v>242.3</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
+      <c r="J6">
+        <f t="shared" si="5"/>
         <v>133.26500000000001</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
+      <c r="K6">
+        <f t="shared" si="6"/>
         <v>187.78250000000003</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <f>96.717*1.1</f>
         <v>106.38870000000001</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" si="5"/>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="7"/>
         <v>106.38870000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -831,40 +880,48 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>27.645</v>
+        <v>202.73000000000002</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>30.409500000000001</v>
+        <v>202.73000000000002</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>30.409500000000001</v>
+        <v>258.02</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>283.822</v>
       </c>
       <c r="G7">
+        <f t="shared" si="4"/>
+        <v>283.822</v>
+      </c>
+      <c r="I7">
         <v>171.6</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
+      <c r="J7">
+        <f t="shared" si="5"/>
         <v>94.38000000000001</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
+      <c r="K7">
+        <f t="shared" si="6"/>
         <v>132.99</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <f>39.865*1.1</f>
         <v>43.851500000000009</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" si="5"/>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="7"/>
         <v>43.851500000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -873,40 +930,48 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>36.299999999999997</v>
+        <v>266.20000000000005</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>39.93</v>
+        <v>266.20000000000005</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>39.93</v>
+        <v>338.79999999999995</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>372.68</v>
       </c>
       <c r="G8">
+        <f t="shared" si="4"/>
+        <v>372.68</v>
+      </c>
+      <c r="I8">
         <v>229.9</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
+      <c r="J8">
+        <f t="shared" si="5"/>
         <v>126.44500000000001</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
+      <c r="K8">
+        <f t="shared" si="6"/>
         <v>178.17250000000001</v>
       </c>
-      <c r="K8" s="2">
+      <c r="M8" s="2">
         <f>47.512*1.1</f>
         <v>52.263200000000005</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="5"/>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="7"/>
         <v>52.263200000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -915,40 +980,48 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>35.024999999999999</v>
+        <v>256.85000000000002</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>38.527500000000003</v>
+        <v>256.85000000000002</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>38.527500000000003</v>
+        <v>326.89999999999998</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>359.59000000000003</v>
       </c>
       <c r="G9">
+        <f t="shared" si="4"/>
+        <v>359.59000000000003</v>
+      </c>
+      <c r="I9">
         <v>216.3</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
+      <c r="J9">
+        <f t="shared" si="5"/>
         <v>118.96500000000002</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
+      <c r="K9">
+        <f t="shared" si="6"/>
         <v>167.63250000000002</v>
       </c>
-      <c r="K9" s="2">
+      <c r="M9" s="2">
         <f>64.775*1.1</f>
         <v>71.252500000000012</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" si="5"/>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="7"/>
         <v>71.252500000000012</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -957,40 +1030,48 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>11.805</v>
+        <v>86.570000000000007</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>12.9855</v>
+        <v>86.570000000000007</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>12.9855</v>
+        <v>110.17999999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>121.19800000000001</v>
       </c>
       <c r="G10">
+        <f t="shared" si="4"/>
+        <v>121.19800000000001</v>
+      </c>
+      <c r="I10">
         <v>88.4</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
+      <c r="J10">
+        <f t="shared" si="5"/>
         <v>48.620000000000005</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
+      <c r="K10">
+        <f t="shared" si="6"/>
         <v>68.510000000000005</v>
       </c>
-      <c r="K10" s="2">
+      <c r="M10" s="2">
         <f>21.135*1.1</f>
         <v>23.248500000000003</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="5"/>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="7"/>
         <v>23.248500000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -999,40 +1080,48 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>10.739999999999998</v>
+        <v>78.760000000000005</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>11.814</v>
+        <v>78.760000000000005</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>11.814</v>
+        <v>100.23999999999998</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>110.26399999999998</v>
       </c>
       <c r="G11">
+        <f t="shared" si="4"/>
+        <v>110.26399999999998</v>
+      </c>
+      <c r="I11">
         <v>72.2</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
+      <c r="J11">
+        <f t="shared" si="5"/>
         <v>39.710000000000008</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
+      <c r="K11">
+        <f t="shared" si="6"/>
         <v>55.954999999999998</v>
       </c>
-      <c r="K11" s="2">
+      <c r="M11" s="2">
         <f>20.346*1.1</f>
         <v>22.380600000000001</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" si="5"/>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="7"/>
         <v>22.380600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1041,40 +1130,48 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>22.439999999999998</v>
+        <v>164.56</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>24.684000000000001</v>
+        <v>164.56</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>24.684000000000001</v>
+        <v>209.43999999999997</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>230.38399999999999</v>
       </c>
       <c r="G12">
+        <f t="shared" si="4"/>
+        <v>230.38399999999999</v>
+      </c>
+      <c r="I12">
         <v>149.1</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
+      <c r="J12">
+        <f t="shared" si="5"/>
         <v>82.00500000000001</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
+      <c r="K12">
+        <f t="shared" si="6"/>
         <v>115.55249999999999</v>
       </c>
-      <c r="K12" s="2">
+      <c r="M12" s="2">
         <f>49.75*1.1</f>
         <v>54.725000000000001</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="5"/>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="7"/>
         <v>54.725000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1083,40 +1180,48 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>30.81</v>
+        <v>225.94000000000003</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>33.890999999999998</v>
+        <v>225.94000000000003</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>33.890999999999998</v>
+        <v>287.56</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>316.31600000000003</v>
       </c>
       <c r="G13">
+        <f t="shared" si="4"/>
+        <v>316.31600000000003</v>
+      </c>
+      <c r="I13">
         <v>221.4</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
+      <c r="J13">
+        <f t="shared" si="5"/>
         <v>121.77000000000001</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
+      <c r="K13">
+        <f t="shared" si="6"/>
         <v>171.58500000000001</v>
       </c>
-      <c r="K13" s="2">
+      <c r="M13" s="2">
         <f>44.417*1.1</f>
         <v>48.858700000000006</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" si="5"/>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="7"/>
         <v>48.858700000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1125,40 +1230,48 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>3.4650000000000003</v>
+        <v>25.410000000000004</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>3.8115000000000006</v>
+        <v>25.410000000000004</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>3.8115000000000006</v>
+        <v>32.340000000000003</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>35.574000000000005</v>
       </c>
       <c r="G14">
+        <f t="shared" si="4"/>
+        <v>35.574000000000005</v>
+      </c>
+      <c r="I14">
         <v>18.100000000000001</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
+      <c r="J14">
+        <f t="shared" si="5"/>
         <v>9.9550000000000018</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
+      <c r="K14">
+        <f t="shared" si="6"/>
         <v>14.027500000000002</v>
       </c>
-      <c r="K14" s="2">
+      <c r="M14" s="2">
         <f>1.824*1.1</f>
         <v>2.0064000000000002</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="5"/>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="7"/>
         <v>2.0064000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1167,40 +1280,48 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>12.299999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>13.53</v>
+        <v>90.2</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>13.53</v>
+        <v>114.8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>126.28</v>
       </c>
       <c r="G15">
+        <f t="shared" si="4"/>
+        <v>126.28</v>
+      </c>
+      <c r="I15">
         <v>69.099999999999994</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
+      <c r="J15">
+        <f t="shared" si="5"/>
         <v>38.005000000000003</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="4"/>
+      <c r="K15">
+        <f t="shared" si="6"/>
         <v>53.552499999999995</v>
       </c>
-      <c r="K15" s="2">
+      <c r="M15" s="2">
         <f>10.219*1.1</f>
         <v>11.2409</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="5"/>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="7"/>
         <v>11.2409</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1209,40 +1330,48 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>12.674999999999999</v>
+        <v>92.95</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>13.942500000000001</v>
+        <v>92.95</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>13.942500000000001</v>
+        <v>118.3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>130.13</v>
       </c>
       <c r="G16">
+        <f t="shared" si="4"/>
+        <v>130.13</v>
+      </c>
+      <c r="I16">
         <v>71.8</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
+      <c r="J16">
+        <f t="shared" si="5"/>
         <v>39.49</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
+      <c r="K16">
+        <f t="shared" si="6"/>
         <v>55.644999999999996</v>
       </c>
-      <c r="K16" s="2">
+      <c r="M16" s="2">
         <f>7.958*1.1</f>
         <v>8.7538</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="5"/>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="7"/>
         <v>8.7538</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1251,40 +1380,48 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>28.574999999999999</v>
+        <v>209.55</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>31.432500000000001</v>
+        <v>209.55</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>31.432500000000001</v>
+        <v>266.7</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>293.37</v>
       </c>
       <c r="G17">
+        <f t="shared" si="4"/>
+        <v>293.37</v>
+      </c>
+      <c r="I17">
         <v>164.8</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
+      <c r="J17">
+        <f t="shared" si="5"/>
         <v>90.640000000000015</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="4"/>
+      <c r="K17">
+        <f t="shared" si="6"/>
         <v>127.72000000000001</v>
       </c>
-      <c r="K17" s="2">
+      <c r="M17" s="2">
         <f>53.183*1.1</f>
         <v>58.501300000000008</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="5"/>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="7"/>
         <v>58.501300000000008</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1293,40 +1430,48 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>15.21</v>
+        <v>111.54000000000002</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>16.731000000000002</v>
+        <v>111.54000000000002</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>16.731000000000002</v>
+        <v>141.96</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>156.15600000000003</v>
       </c>
       <c r="G18">
+        <f t="shared" si="4"/>
+        <v>156.15600000000003</v>
+      </c>
+      <c r="I18">
         <v>91.9</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
+      <c r="J18">
+        <f t="shared" si="5"/>
         <v>50.545000000000009</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="4"/>
+      <c r="K18">
+        <f t="shared" si="6"/>
         <v>71.222499999999997</v>
       </c>
-      <c r="K18" s="2">
+      <c r="M18" s="2">
         <f>20.957*1.1</f>
         <v>23.052700000000002</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" si="5"/>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="7"/>
         <v>23.052700000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1335,40 +1480,48 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>9.5849999999999991</v>
+        <v>70.290000000000006</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>10.5435</v>
+        <v>70.290000000000006</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>10.5435</v>
+        <v>89.46</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>98.406000000000006</v>
       </c>
       <c r="G19">
+        <f t="shared" si="4"/>
+        <v>98.406000000000006</v>
+      </c>
+      <c r="I19">
         <v>65.3</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
+      <c r="J19">
+        <f t="shared" si="5"/>
         <v>35.914999999999999</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="4"/>
+      <c r="K19">
+        <f t="shared" si="6"/>
         <v>50.607500000000002</v>
       </c>
-      <c r="K19" s="2">
+      <c r="M19" s="2">
         <f>26.744*1.1</f>
         <v>29.418400000000002</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
-        <f t="shared" si="5"/>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="7"/>
         <v>29.418400000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1377,40 +1530,48 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>21.179999999999996</v>
+        <v>155.32</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>23.297999999999998</v>
+        <v>155.32</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>23.297999999999998</v>
+        <v>197.67999999999998</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>217.44800000000001</v>
       </c>
       <c r="G20">
+        <f t="shared" si="4"/>
+        <v>217.44800000000001</v>
+      </c>
+      <c r="I20">
         <v>133.6</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
+      <c r="J20">
+        <f t="shared" si="5"/>
         <v>73.48</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="4"/>
+      <c r="K20">
+        <f t="shared" si="6"/>
         <v>103.53999999999999</v>
       </c>
-      <c r="K20" s="2">
+      <c r="M20" s="2">
         <f>54.133*1.1</f>
         <v>59.546300000000009</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
-        <f t="shared" si="5"/>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="7"/>
         <v>59.546300000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1419,29 +1580,37 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>5.2349999999999994</v>
+        <v>38.39</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>5.7584999999999997</v>
+        <v>2.5277242869999998</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>0.37915864304999997</v>
-      </c>
-      <c r="K21" s="2">
+        <v>48.859999999999992</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>53.745999999999995</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>3.5388140017999992</v>
+      </c>
+      <c r="M21" s="2">
         <f>10.416*1.1</f>
         <v>11.457600000000001</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>6.5843299999999993E-2</v>
       </c>
-      <c r="M21" s="3">
-        <f t="shared" si="5"/>
+      <c r="O21" s="3">
+        <f t="shared" si="7"/>
         <v>0.75440619407999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1450,40 +1619,48 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>6.5550000000000006</v>
+        <v>48.070000000000007</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>7.2105000000000015</v>
+        <v>46.392304123000009</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>6.9588456184500016</v>
+        <v>61.18</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>67.298000000000002</v>
       </c>
       <c r="G22">
+        <f t="shared" si="4"/>
+        <v>64.949225772199995</v>
+      </c>
+      <c r="I22">
         <v>49.8</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="3"/>
+      <c r="J22">
+        <f t="shared" si="5"/>
         <v>27.39</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="4"/>
+      <c r="K22">
+        <f t="shared" si="6"/>
         <v>38.594999999999999</v>
       </c>
-      <c r="K22" s="2">
+      <c r="M22" s="2">
         <f>20.95*1.1</f>
         <v>23.045000000000002</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>0.96509889999999998</v>
       </c>
-      <c r="M22" s="3">
-        <f t="shared" si="5"/>
+      <c r="O22" s="3">
+        <f t="shared" si="7"/>
         <v>22.240704150500001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1492,40 +1669,48 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3.1949999999999998</v>
+        <v>23.430000000000003</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>3.5145</v>
+        <v>23.430000000000003</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>3.5145</v>
+        <v>29.82</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>32.802</v>
       </c>
       <c r="G23">
+        <f t="shared" si="4"/>
+        <v>32.802</v>
+      </c>
+      <c r="I23">
         <v>16.600000000000001</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
+      <c r="J23">
+        <f t="shared" si="5"/>
         <v>9.1300000000000008</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="4"/>
+      <c r="K23">
+        <f t="shared" si="6"/>
         <v>12.865000000000002</v>
       </c>
-      <c r="K23" s="2">
+      <c r="M23" s="2">
         <f>1.728*1.1</f>
         <v>1.9008</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" si="5"/>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="7"/>
         <v>1.9008</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1534,40 +1719,48 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>19.260000000000002</v>
+        <v>141.24</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>21.186000000000003</v>
+        <v>141.24</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>21.186000000000003</v>
+        <v>179.76</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>197.73600000000002</v>
       </c>
       <c r="G24">
+        <f t="shared" si="4"/>
+        <v>197.73600000000002</v>
+      </c>
+      <c r="I24">
         <v>113.9</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
+      <c r="J24">
+        <f t="shared" si="5"/>
         <v>62.64500000000001</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="4"/>
+      <c r="K24">
+        <f t="shared" si="6"/>
         <v>88.272500000000008</v>
       </c>
-      <c r="K24" s="2">
+      <c r="M24" s="2">
         <f>14.902*1.1</f>
         <v>16.392199999999999</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" s="3">
-        <f t="shared" si="5"/>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="7"/>
         <v>16.392199999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1576,29 +1769,37 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>8.85</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>9.7350000000000012</v>
+        <v>10.02239018</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>1.5033585270000001</v>
-      </c>
-      <c r="K25" s="2">
+        <v>82.6</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>90.86</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>14.031346251999999</v>
+      </c>
+      <c r="M25" s="2">
         <f>18.656*1.1</f>
         <v>20.521599999999999</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>0.15442819999999999</v>
       </c>
-      <c r="M25" s="3">
-        <f t="shared" si="5"/>
+      <c r="O25" s="3">
+        <f t="shared" si="7"/>
         <v>3.1691137491199997</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1607,40 +1808,48 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>31.41</v>
+        <v>230.34000000000003</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>34.551000000000002</v>
+        <v>230.34000000000003</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>34.551000000000002</v>
+        <v>293.15999999999997</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>322.476</v>
       </c>
       <c r="G26">
+        <f t="shared" si="4"/>
+        <v>322.476</v>
+      </c>
+      <c r="I26">
         <v>173.8</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
+      <c r="J26">
+        <f t="shared" si="5"/>
         <v>95.590000000000018</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="4"/>
+      <c r="K26">
+        <f t="shared" si="6"/>
         <v>134.69499999999999</v>
       </c>
-      <c r="K26" s="2">
+      <c r="M26" s="2">
         <f>26.772*1.1</f>
         <v>29.449200000000001</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26" s="3">
-        <f t="shared" si="5"/>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="7"/>
         <v>29.449200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1649,40 +1858,48 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>23.099999999999998</v>
+        <v>169.4</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>25.41</v>
+        <v>169.4</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>25.41</v>
+        <v>215.6</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>237.16000000000003</v>
       </c>
       <c r="G27">
+        <f t="shared" si="4"/>
+        <v>237.16000000000003</v>
+      </c>
+      <c r="I27">
         <v>143</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="3"/>
+      <c r="J27">
+        <f t="shared" si="5"/>
         <v>78.650000000000006</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="4"/>
+      <c r="K27">
+        <f t="shared" si="6"/>
         <v>110.825</v>
       </c>
-      <c r="K27" s="2">
+      <c r="M27" s="2">
         <f>38.462*1.1</f>
         <v>42.308200000000006</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27" s="3">
-        <f t="shared" si="5"/>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="7"/>
         <v>42.308200000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1691,40 +1908,48 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>7.8449999999999989</v>
+        <v>57.53</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>8.6295000000000002</v>
+        <v>57.53</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>8.6295000000000002</v>
+        <v>73.219999999999985</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>80.541999999999987</v>
       </c>
       <c r="G28">
+        <f t="shared" si="4"/>
+        <v>80.541999999999987</v>
+      </c>
+      <c r="I28">
         <v>52.1</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="3"/>
+      <c r="J28">
+        <f t="shared" si="5"/>
         <v>28.655000000000005</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="4"/>
+      <c r="K28">
+        <f t="shared" si="6"/>
         <v>40.377499999999998</v>
       </c>
-      <c r="K28" s="2">
+      <c r="M28" s="2">
         <f>27.415*1.1</f>
         <v>30.156500000000001</v>
       </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28" s="3">
-        <f t="shared" si="5"/>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="7"/>
         <v>30.156500000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1733,40 +1958,48 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>40.604999999999997</v>
+        <v>297.77000000000004</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>44.665500000000002</v>
+        <v>297.77000000000004</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>44.665500000000002</v>
+        <v>378.97999999999996</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>416.87799999999999</v>
       </c>
       <c r="G29">
+        <f t="shared" si="4"/>
+        <v>416.87799999999999</v>
+      </c>
+      <c r="I29">
         <v>246.8</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
+      <c r="J29">
+        <f t="shared" si="5"/>
         <v>135.74</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="4"/>
+      <c r="K29">
+        <f t="shared" si="6"/>
         <v>191.27</v>
       </c>
-      <c r="K29" s="2">
+      <c r="M29" s="2">
         <f>67.225*1.1</f>
         <v>73.947500000000005</v>
       </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29" s="3">
-        <f t="shared" si="5"/>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="7"/>
         <v>73.947500000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1775,40 +2008,48 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>15.944999999999999</v>
+        <v>116.93</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>17.5395</v>
+        <v>112.06769981000001</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>16.810154971500001</v>
+        <v>148.82</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>163.702</v>
       </c>
       <c r="G30">
+        <f t="shared" si="4"/>
+        <v>156.894779734</v>
+      </c>
+      <c r="I30">
         <v>105.5</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
+      <c r="J30">
+        <f t="shared" si="5"/>
         <v>58.025000000000006</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="4"/>
+      <c r="K30">
+        <f t="shared" si="6"/>
         <v>81.762500000000003</v>
       </c>
-      <c r="K30" s="2">
+      <c r="M30" s="2">
         <f>25.817*1.1</f>
         <v>28.398700000000002</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>0.95841699999999996</v>
       </c>
-      <c r="M30" s="3">
-        <f t="shared" si="5"/>
+      <c r="O30" s="3">
+        <f t="shared" si="7"/>
         <v>27.217796857900002</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1817,40 +2058,48 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>41.805</v>
+        <v>306.57</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>45.985500000000002</v>
+        <v>306.57</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>45.985500000000002</v>
+        <v>390.17999999999995</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>429.19799999999998</v>
       </c>
       <c r="G31">
+        <f t="shared" si="4"/>
+        <v>429.19799999999998</v>
+      </c>
+      <c r="I31">
         <v>254.4</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="3"/>
+      <c r="J31">
+        <f t="shared" si="5"/>
         <v>139.92000000000002</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="4"/>
+      <c r="K31">
+        <f t="shared" si="6"/>
         <v>197.16</v>
       </c>
-      <c r="K31" s="2">
+      <c r="M31" s="2">
         <f>72.284*1.1</f>
         <v>79.512400000000014</v>
       </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31" s="3">
-        <f t="shared" si="5"/>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="7"/>
         <v>79.512400000000014</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1859,40 +2108,48 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>1.68</v>
+        <v>12.32</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>1.8480000000000001</v>
+        <v>12.32</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>1.8480000000000001</v>
+        <v>15.679999999999998</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>17.247999999999998</v>
       </c>
       <c r="G32">
+        <f t="shared" si="4"/>
+        <v>17.247999999999998</v>
+      </c>
+      <c r="I32">
         <v>11</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
+      <c r="J32">
+        <f t="shared" si="5"/>
         <v>6.0500000000000007</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="4"/>
+      <c r="K32">
+        <f t="shared" si="6"/>
         <v>8.5250000000000004</v>
       </c>
-      <c r="K32" s="2">
+      <c r="M32" s="2">
         <f>3.357*1.1</f>
         <v>3.6927000000000003</v>
       </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32" s="3">
-        <f t="shared" si="5"/>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="7"/>
         <v>3.6927000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1901,40 +2158,48 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>12.9</v>
+        <v>94.600000000000009</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>14.190000000000001</v>
+        <v>94.600000000000009</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>14.190000000000001</v>
+        <v>120.39999999999999</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>132.44</v>
       </c>
       <c r="G33">
+        <f t="shared" si="4"/>
+        <v>132.44</v>
+      </c>
+      <c r="I33">
         <v>83.4</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="3"/>
+      <c r="J33">
+        <f t="shared" si="5"/>
         <v>45.870000000000005</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="4"/>
+      <c r="K33">
+        <f t="shared" si="6"/>
         <v>64.635000000000005</v>
       </c>
-      <c r="K33" s="2">
+      <c r="M33" s="2">
         <f>23.081*1.1</f>
         <v>25.389100000000003</v>
       </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33" s="3">
-        <f t="shared" si="5"/>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="7"/>
         <v>25.389100000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1943,40 +2208,48 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>1.9950000000000001</v>
+        <v>14.630000000000003</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>2.1945000000000001</v>
+        <v>11.774247408000003</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>1.7661371112000002</v>
+        <v>18.62</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>20.482000000000003</v>
       </c>
       <c r="G34">
+        <f t="shared" si="4"/>
+        <v>16.483946371200002</v>
+      </c>
+      <c r="I34">
         <v>15.1</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="3"/>
+      <c r="J34">
+        <f t="shared" si="5"/>
         <v>8.3049999999999997</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="4"/>
+      <c r="K34">
+        <f t="shared" si="6"/>
         <v>11.702500000000001</v>
       </c>
-      <c r="K34" s="2">
+      <c r="M34" s="2">
         <f>2.362*1.1</f>
         <v>2.5982000000000003</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>0.80480160000000001</v>
       </c>
-      <c r="M34" s="3">
-        <f t="shared" si="5"/>
+      <c r="O34" s="3">
+        <f t="shared" si="7"/>
         <v>2.0910355171200004</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1985,40 +2258,48 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>18.764999999999997</v>
+        <v>137.61000000000001</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>20.641499999999997</v>
+        <v>137.61000000000001</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>20.641499999999997</v>
+        <v>175.14</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>192.654</v>
       </c>
       <c r="G35">
+        <f t="shared" si="4"/>
+        <v>192.654</v>
+      </c>
+      <c r="I35">
         <v>109.6</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="3"/>
+      <c r="J35">
+        <f t="shared" si="5"/>
         <v>60.28</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="4"/>
+      <c r="K35">
+        <f t="shared" si="6"/>
         <v>84.94</v>
       </c>
-      <c r="K35" s="2">
+      <c r="M35" s="2">
         <f>22.782*1.1</f>
         <v>25.060200000000002</v>
       </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35" s="3">
-        <f t="shared" si="5"/>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="7"/>
         <v>25.060200000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -2027,29 +2308,37 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>90.24</v>
+        <v>661.7600000000001</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>99.263999999999996</v>
+        <v>157.16522060800003</v>
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>23.5747830912</v>
-      </c>
-      <c r="K36" s="2">
+        <v>842.24</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>926.46400000000006</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>220.03130885120001</v>
+      </c>
+      <c r="M36" s="2">
         <f>202.445*1.1</f>
         <v>222.68950000000001</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>0.23749580000000001</v>
       </c>
-      <c r="M36" s="3">
-        <f t="shared" si="5"/>
+      <c r="O36" s="3">
+        <f t="shared" si="7"/>
         <v>52.8878209541</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -2058,40 +2347,48 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>1.02</v>
+        <v>7.48</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>1.1220000000000001</v>
+        <v>7.48</v>
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>1.1220000000000001</v>
+        <v>9.52</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>10.472</v>
       </c>
       <c r="G37">
+        <f t="shared" si="4"/>
+        <v>10.472</v>
+      </c>
+      <c r="I37">
         <v>5.9</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="3"/>
+      <c r="J37">
+        <f t="shared" si="5"/>
         <v>3.2450000000000006</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="4"/>
+      <c r="K37">
+        <f t="shared" si="6"/>
         <v>4.5724999999999998</v>
       </c>
-      <c r="K37" s="2">
+      <c r="M37" s="2">
         <f>0.08*1.1</f>
         <v>8.8000000000000009E-2</v>
       </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37" s="3">
-        <f t="shared" si="5"/>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="7"/>
         <v>8.8000000000000009E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2100,40 +2397,48 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>19.335000000000001</v>
+        <v>141.79000000000002</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>21.268500000000003</v>
+        <v>141.79000000000002</v>
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>21.268500000000003</v>
+        <v>180.46</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>198.50600000000003</v>
       </c>
       <c r="G38">
+        <f t="shared" si="4"/>
+        <v>198.50600000000003</v>
+      </c>
+      <c r="I38">
         <v>108.7</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="3"/>
+      <c r="J38">
+        <f t="shared" si="5"/>
         <v>59.785000000000004</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="4"/>
+      <c r="K38">
+        <f t="shared" si="6"/>
         <v>84.242500000000007</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <f>31.807*1.1</f>
         <v>34.987700000000004</v>
       </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38" s="3">
-        <f t="shared" si="5"/>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="7"/>
         <v>34.987700000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2142,40 +2447,48 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>16.8</v>
+        <v>123.20000000000002</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>18.480000000000004</v>
+        <v>123.20000000000002</v>
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>18.480000000000004</v>
+        <v>156.79999999999998</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>172.48</v>
       </c>
       <c r="G39">
+        <f t="shared" si="4"/>
+        <v>172.48</v>
+      </c>
+      <c r="I39">
         <v>100.4</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="3"/>
+      <c r="J39">
+        <f t="shared" si="5"/>
         <v>55.220000000000006</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="4"/>
+      <c r="K39">
+        <f t="shared" si="6"/>
         <v>77.81</v>
       </c>
-      <c r="K39" s="2">
+      <c r="M39" s="2">
         <f>49.518*1.1</f>
         <v>54.469800000000006</v>
       </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39" s="3">
-        <f t="shared" si="5"/>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="7"/>
         <v>54.469800000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2184,40 +2497,48 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>16.574999999999999</v>
+        <v>121.55000000000001</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>18.232500000000002</v>
+        <v>121.55000000000001</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>18.232500000000002</v>
+        <v>154.69999999999999</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>170.17</v>
       </c>
       <c r="G40">
+        <f t="shared" si="4"/>
+        <v>170.17</v>
+      </c>
+      <c r="I40">
         <v>98.2</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="3"/>
+      <c r="J40">
+        <f t="shared" si="5"/>
         <v>54.010000000000005</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="4"/>
+      <c r="K40">
+        <f t="shared" si="6"/>
         <v>76.105000000000004</v>
       </c>
-      <c r="K40" s="2">
+      <c r="M40" s="2">
         <f>33.174*1.1</f>
         <v>36.491400000000006</v>
       </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40" s="3">
-        <f t="shared" si="5"/>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="7"/>
         <v>36.491400000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2226,29 +2547,37 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>9.4499999999999993</v>
+        <v>69.300000000000011</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>10.395</v>
+        <v>11.958844590000002</v>
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>1.7938266885</v>
-      </c>
-      <c r="K41" s="2">
+        <v>88.199999999999989</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>97.02</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>16.742382425999999</v>
+      </c>
+      <c r="M41" s="2">
         <f>37.556*1.1</f>
         <v>41.311599999999999</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>0.17256630000000001</v>
       </c>
-      <c r="M41" s="3">
-        <f t="shared" si="5"/>
+      <c r="O41" s="3">
+        <f t="shared" si="7"/>
         <v>7.1289899590800001</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2257,43 +2586,4311 @@
         <v>4993.8</v>
       </c>
       <c r="C42">
-        <f>SUM(C2:C41)</f>
-        <v>749.07</v>
+        <f t="shared" ref="C42:D42" si="8">SUM(C2:C41)</f>
+        <v>5493.18</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="8"/>
+        <v>4831.1084310059996</v>
+      </c>
+      <c r="E42">
+        <f>SUM(E2:E41)</f>
+        <v>6991.32</v>
+      </c>
+      <c r="F42">
+        <f>SUM(F2:F41)</f>
+        <v>7690.4520000000002</v>
+      </c>
+      <c r="G42">
+        <f>SUM(G2:G41)</f>
+        <v>6763.551803408398</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42" si="9">SUM(I2:I40)</f>
+        <v>3940.2000000000003</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>2167.11</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="6"/>
+        <v>3053.6550000000002</v>
+      </c>
+      <c r="M42" s="2">
+        <f>SUM(M2:M40)</f>
+        <v>1467.2823000000001</v>
+      </c>
+      <c r="O42" s="3">
+        <f>SUM(O2:O41)</f>
+        <v>1274.0615673819004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <f>B42+O42</f>
+        <v>6267.8615673819004</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="O43" s="3">
+        <f>O42*1.15</f>
+        <v>1465.1708024891855</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="K44">
+        <f>202.445*1.1</f>
+        <v>222.68950000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>D42-G42</f>
+        <v>-1932.4433724023984</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BD13B8-DECC-4B64-A2DC-AE15A21A4498}">
+  <dimension ref="A1:O50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="C2">
+        <f>B2*1.1</f>
+        <v>157.63000000000002</v>
+      </c>
+      <c r="D2">
+        <f>C2*N2</f>
+        <v>157.63000000000002</v>
+      </c>
+      <c r="E2">
+        <f>B2*0.4</f>
+        <v>57.320000000000007</v>
+      </c>
+      <c r="F2">
+        <f>E2*1.1</f>
+        <v>63.052000000000014</v>
+      </c>
+      <c r="G2">
+        <f>F2*N2</f>
+        <v>63.052000000000014</v>
+      </c>
+      <c r="I2">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="J2">
+        <f>I2*0.55</f>
+        <v>73.040000000000006</v>
+      </c>
+      <c r="K2">
+        <f>I2-I2*0.0225*10</f>
+        <v>102.92000000000002</v>
+      </c>
+      <c r="M2" s="2">
+        <f>44.803*1.1</f>
+        <v>49.283300000000004</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <f>M2*N2</f>
+        <v>49.283300000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>60.1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C41" si="0">B3*1.1</f>
+        <v>66.110000000000014</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D41" si="1">C3*N3</f>
+        <v>66.110000000000014</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E41" si="2">B3*0.4</f>
+        <v>24.040000000000003</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F41" si="3">E3*1.1</f>
+        <v>26.444000000000006</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G41" si="4">F3*N3</f>
+        <v>26.444000000000006</v>
+      </c>
+      <c r="I3">
+        <v>65.8</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J42" si="5">I3*0.55</f>
+        <v>36.190000000000005</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K42" si="6">I3-I3*0.0225*10</f>
+        <v>50.994999999999997</v>
+      </c>
+      <c r="M3" s="2">
+        <f>23.469*1.1</f>
+        <v>25.815900000000003</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O41" si="7">M3*N3</f>
+        <v>25.815900000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>44.1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>48.510000000000005</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>48.510000000000005</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>17.64</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>19.404000000000003</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>19.404000000000003</v>
+      </c>
+      <c r="I4">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>19.965</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>28.1325</v>
+      </c>
+      <c r="M4" s="2">
+        <f>10.186*1.1</f>
+        <v>11.204600000000001</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="7"/>
+        <v>11.204600000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>16.8</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>6.7200000000000006</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>7.3920000000000012</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>7.3920000000000012</v>
+      </c>
+      <c r="I5">
+        <v>11.3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>6.2150000000000007</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>8.7575000000000003</v>
+      </c>
+      <c r="M5" s="2">
+        <f>2.667*1.1</f>
+        <v>2.9337</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="7"/>
+        <v>2.9337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>260.7</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>286.77000000000004</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>286.77000000000004</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>104.28</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>114.70800000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>114.70800000000001</v>
+      </c>
+      <c r="I6">
+        <v>242.3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>133.26500000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>187.78250000000003</v>
+      </c>
+      <c r="M6" s="2">
+        <f>96.717*1.1</f>
+        <v>106.38870000000001</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="7"/>
+        <v>106.38870000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>184.3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>202.73000000000002</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>202.73000000000002</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>73.720000000000013</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>81.092000000000027</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>81.092000000000027</v>
+      </c>
+      <c r="I7">
+        <v>171.6</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>94.38000000000001</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>132.99</v>
+      </c>
+      <c r="M7" s="2">
+        <f>39.865*1.1</f>
+        <v>43.851500000000009</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="7"/>
+        <v>43.851500000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>242</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>266.20000000000005</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>266.20000000000005</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>96.800000000000011</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>106.48000000000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>106.48000000000002</v>
+      </c>
+      <c r="I8">
+        <v>229.9</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>126.44500000000001</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>178.17250000000001</v>
+      </c>
+      <c r="M8" s="2">
+        <f>47.512*1.1</f>
+        <v>52.263200000000005</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="7"/>
+        <v>52.263200000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>233.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>256.85000000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>256.85000000000002</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>93.4</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>102.74000000000001</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>102.74000000000001</v>
+      </c>
+      <c r="I9">
+        <v>216.3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>118.96500000000002</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>167.63250000000002</v>
+      </c>
+      <c r="M9" s="2">
+        <f>64.775*1.1</f>
+        <v>71.252500000000012</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="7"/>
+        <v>71.252500000000012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>78.7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>86.570000000000007</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>86.570000000000007</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>31.480000000000004</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>34.628000000000007</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>34.628000000000007</v>
+      </c>
+      <c r="I10">
+        <v>88.4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>48.620000000000005</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>68.510000000000005</v>
+      </c>
+      <c r="M10" s="2">
+        <f>21.135*1.1</f>
+        <v>23.248500000000003</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="7"/>
+        <v>23.248500000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>78.760000000000005</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>78.760000000000005</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>28.64</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>31.504000000000005</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>31.504000000000005</v>
+      </c>
+      <c r="I11">
+        <v>72.2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>39.710000000000008</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>55.954999999999998</v>
+      </c>
+      <c r="M11" s="2">
+        <f>20.346*1.1</f>
+        <v>22.380600000000001</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="7"/>
+        <v>22.380600000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>149.6</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>164.56</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>164.56</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>59.84</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>65.824000000000012</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>65.824000000000012</v>
+      </c>
+      <c r="I12">
+        <v>149.1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>82.00500000000001</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>115.55249999999999</v>
+      </c>
+      <c r="M12" s="2">
+        <f>49.75*1.1</f>
+        <v>54.725000000000001</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="7"/>
+        <v>54.725000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>205.4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>225.94000000000003</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>225.94000000000003</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>82.160000000000011</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>90.376000000000019</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>90.376000000000019</v>
+      </c>
+      <c r="I13">
+        <v>221.4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>121.77000000000001</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>171.58500000000001</v>
+      </c>
+      <c r="M13" s="2">
+        <f>44.417*1.1</f>
+        <v>48.858700000000006</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="7"/>
+        <v>48.858700000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>23.1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>25.410000000000004</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>25.410000000000004</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>9.24</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>10.164000000000001</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>10.164000000000001</v>
+      </c>
+      <c r="I14">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>9.9550000000000018</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>14.027500000000002</v>
+      </c>
+      <c r="M14" s="2">
+        <f>1.824*1.1</f>
+        <v>2.0064000000000002</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="7"/>
+        <v>2.0064000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>82</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>90.2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>90.2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>32.800000000000004</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>36.080000000000005</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>36.080000000000005</v>
+      </c>
+      <c r="I15">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>38.005000000000003</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>53.552499999999995</v>
+      </c>
+      <c r="M15" s="2">
+        <f>10.219*1.1</f>
+        <v>11.2409</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="7"/>
+        <v>11.2409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>84.5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>92.95</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>92.95</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>33.800000000000004</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>37.180000000000007</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>37.180000000000007</v>
+      </c>
+      <c r="I16">
+        <v>71.8</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>39.49</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>55.644999999999996</v>
+      </c>
+      <c r="M16" s="2">
+        <f>7.958*1.1</f>
+        <v>8.7538</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="7"/>
+        <v>8.7538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>190.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>209.55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>209.55</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>76.2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>83.820000000000007</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>83.820000000000007</v>
+      </c>
+      <c r="I17">
+        <v>164.8</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>90.640000000000015</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>127.72000000000001</v>
+      </c>
+      <c r="M17" s="2">
+        <f>53.183*1.1</f>
+        <v>58.501300000000008</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="7"/>
+        <v>58.501300000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>101.4</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>111.54000000000002</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>111.54000000000002</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>40.56</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>44.616000000000007</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>44.616000000000007</v>
+      </c>
+      <c r="I18">
+        <v>91.9</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>50.545000000000009</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>71.222499999999997</v>
+      </c>
+      <c r="M18" s="2">
+        <f>20.957*1.1</f>
+        <v>23.052700000000002</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="7"/>
+        <v>23.052700000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>63.9</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>70.290000000000006</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>70.290000000000006</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>25.560000000000002</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>28.116000000000003</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>28.116000000000003</v>
+      </c>
+      <c r="I19">
+        <v>65.3</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>35.914999999999999</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>50.607500000000002</v>
+      </c>
+      <c r="M19" s="2">
+        <f>26.744*1.1</f>
+        <v>29.418400000000002</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="7"/>
+        <v>29.418400000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>155.32</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>155.32</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>56.48</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>62.128</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>62.128</v>
+      </c>
+      <c r="I20">
+        <v>133.6</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>73.48</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>103.53999999999999</v>
+      </c>
+      <c r="M20" s="2">
+        <f>54.133*1.1</f>
+        <v>59.546300000000009</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="7"/>
+        <v>59.546300000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>34.9</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>38.39</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>2.5277242869999998</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>13.96</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>15.356000000000002</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>1.0110897148</v>
+      </c>
+      <c r="M21" s="2">
+        <f>10.416*1.1</f>
+        <v>11.457600000000001</v>
+      </c>
+      <c r="N21">
+        <v>6.5843299999999993E-2</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="7"/>
+        <v>0.75440619407999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>43.7</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>48.070000000000007</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>46.392304123000009</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>17.48</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>19.228000000000002</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>18.5569216492</v>
+      </c>
+      <c r="I22">
+        <v>49.8</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>27.39</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>38.594999999999999</v>
+      </c>
+      <c r="M22" s="2">
+        <f>20.95*1.1</f>
+        <v>23.045000000000002</v>
+      </c>
+      <c r="N22">
+        <v>0.96509889999999998</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="7"/>
+        <v>22.240704150500001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>21.3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>23.430000000000003</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>23.430000000000003</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>9.3720000000000017</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>9.3720000000000017</v>
+      </c>
+      <c r="I23">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>12.865000000000002</v>
+      </c>
+      <c r="M23" s="2">
+        <f>1.728*1.1</f>
+        <v>1.9008</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="7"/>
+        <v>1.9008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>128.4</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>141.24</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>141.24</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>51.360000000000007</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>56.496000000000009</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>56.496000000000009</v>
+      </c>
+      <c r="I24">
+        <v>113.9</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>62.64500000000001</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>88.272500000000008</v>
+      </c>
+      <c r="M24" s="2">
+        <f>14.902*1.1</f>
+        <v>16.392199999999999</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="7"/>
+        <v>16.392199999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>10.02239018</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>23.6</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>25.960000000000004</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>4.0089560720000001</v>
+      </c>
+      <c r="M25" s="2">
+        <f>18.656*1.1</f>
+        <v>20.521599999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.15442819999999999</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="7"/>
+        <v>3.1691137491199997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>209.4</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>230.34000000000003</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>230.34000000000003</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>83.76</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>92.13600000000001</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>92.13600000000001</v>
+      </c>
+      <c r="I26">
+        <v>173.8</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>95.590000000000018</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>134.69499999999999</v>
+      </c>
+      <c r="M26" s="2">
+        <f>26.772*1.1</f>
+        <v>29.449200000000001</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="7"/>
+        <v>29.449200000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>154</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>169.4</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>169.4</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>61.6</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>67.760000000000005</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>67.760000000000005</v>
+      </c>
+      <c r="I27">
+        <v>143</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>78.650000000000006</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>110.825</v>
+      </c>
+      <c r="M27" s="2">
+        <f>38.462*1.1</f>
+        <v>42.308200000000006</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="7"/>
+        <v>42.308200000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>52.3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>57.53</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>57.53</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>20.92</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>23.012000000000004</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>23.012000000000004</v>
+      </c>
+      <c r="I28">
+        <v>52.1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>28.655000000000005</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>40.377499999999998</v>
+      </c>
+      <c r="M28" s="2">
+        <f>27.415*1.1</f>
+        <v>30.156500000000001</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="7"/>
+        <v>30.156500000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>270.7</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>297.77000000000004</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>297.77000000000004</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>108.28</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>119.108</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>119.108</v>
+      </c>
+      <c r="I29">
+        <v>246.8</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>135.74</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>191.27</v>
+      </c>
+      <c r="M29" s="2">
+        <f>67.225*1.1</f>
+        <v>73.947500000000005</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="7"/>
+        <v>73.947500000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>106.3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>116.93</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>112.06769981000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>42.52</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>46.772000000000006</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>44.827079924000003</v>
+      </c>
+      <c r="I30">
+        <v>105.5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>58.025000000000006</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>81.762500000000003</v>
+      </c>
+      <c r="M30" s="2">
+        <f>25.817*1.1</f>
+        <v>28.398700000000002</v>
+      </c>
+      <c r="N30">
+        <v>0.95841699999999996</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="7"/>
+        <v>27.217796857900002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>278.7</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>306.57</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>306.57</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>111.48</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>122.62800000000001</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>122.62800000000001</v>
+      </c>
+      <c r="I31">
+        <v>254.4</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>139.92000000000002</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>197.16</v>
+      </c>
+      <c r="M31" s="2">
+        <f>72.284*1.1</f>
+        <v>79.512400000000014</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="7"/>
+        <v>79.512400000000014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>11.2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>12.32</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>12.32</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>4.4799999999999995</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>4.9279999999999999</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>4.9279999999999999</v>
+      </c>
+      <c r="I32">
+        <v>11</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>6.0500000000000007</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="6"/>
+        <v>8.5250000000000004</v>
+      </c>
+      <c r="M32" s="2">
+        <f>3.357*1.1</f>
+        <v>3.6927000000000003</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="7"/>
+        <v>3.6927000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>86</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>34.4</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>37.840000000000003</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>37.840000000000003</v>
+      </c>
+      <c r="I33">
+        <v>83.4</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>45.870000000000005</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>64.635000000000005</v>
+      </c>
+      <c r="M33" s="2">
+        <f>23.081*1.1</f>
+        <v>25.389100000000003</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="7"/>
+        <v>25.389100000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>13.3</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>14.630000000000003</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>11.774247408000003</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>5.32</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>5.8520000000000012</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>4.709698963200001</v>
+      </c>
+      <c r="I34">
+        <v>15.1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>8.3049999999999997</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="6"/>
+        <v>11.702500000000001</v>
+      </c>
+      <c r="M34" s="2">
+        <f>2.362*1.1</f>
+        <v>2.5982000000000003</v>
+      </c>
+      <c r="N34">
+        <v>0.80480160000000001</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="7"/>
+        <v>2.0910355171200004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>125.1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>137.61000000000001</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>137.61000000000001</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>50.04</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>55.044000000000004</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>55.044000000000004</v>
+      </c>
+      <c r="I35">
+        <v>109.6</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>60.28</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="6"/>
+        <v>84.94</v>
+      </c>
+      <c r="M35" s="2">
+        <f>22.782*1.1</f>
+        <v>25.060200000000002</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="7"/>
+        <v>25.060200000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>601.6</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>661.7600000000001</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>157.16522060800003</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>240.64000000000001</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>264.70400000000006</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>62.866088243200018</v>
+      </c>
+      <c r="M36" s="2">
+        <f>202.445*1.1</f>
+        <v>222.68950000000001</v>
+      </c>
+      <c r="N36">
+        <v>0.23749580000000001</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="7"/>
+        <v>52.8878209541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>6.8</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>7.48</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>7.48</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>2.72</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>2.9920000000000004</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>2.9920000000000004</v>
+      </c>
+      <c r="I37">
+        <v>5.9</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>3.2450000000000006</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="6"/>
+        <v>4.5724999999999998</v>
+      </c>
+      <c r="M37" s="2">
+        <f>0.08*1.1</f>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="7"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>128.9</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>141.79000000000002</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>141.79000000000002</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>51.56</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>56.716000000000008</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>56.716000000000008</v>
+      </c>
+      <c r="I38">
+        <v>108.7</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>59.785000000000004</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="6"/>
+        <v>84.242500000000007</v>
+      </c>
+      <c r="M38" s="2">
+        <f>31.807*1.1</f>
+        <v>34.987700000000004</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="7"/>
+        <v>34.987700000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>112</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>123.20000000000002</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>123.20000000000002</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>44.800000000000004</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>49.280000000000008</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>49.280000000000008</v>
+      </c>
+      <c r="I39">
+        <v>100.4</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>55.220000000000006</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="6"/>
+        <v>77.81</v>
+      </c>
+      <c r="M39" s="2">
+        <f>49.518*1.1</f>
+        <v>54.469800000000006</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="7"/>
+        <v>54.469800000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>110.5</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>121.55000000000001</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>121.55000000000001</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>44.2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>48.620000000000005</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>48.620000000000005</v>
+      </c>
+      <c r="I40">
+        <v>98.2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>54.010000000000005</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="6"/>
+        <v>76.105000000000004</v>
+      </c>
+      <c r="M40" s="2">
+        <f>33.174*1.1</f>
+        <v>36.491400000000006</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="7"/>
+        <v>36.491400000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>63</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>69.300000000000011</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>11.958844590000002</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>27.720000000000006</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>4.7835378360000016</v>
+      </c>
+      <c r="M41" s="2">
+        <f>37.556*1.1</f>
+        <v>41.311599999999999</v>
+      </c>
+      <c r="N41">
+        <v>0.17256630000000001</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="7"/>
+        <v>7.1289899590800001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42">
+        <f>SUM(B2:B41)</f>
+        <v>4993.8</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:D42" si="8">SUM(C2:C41)</f>
+        <v>5493.18</v>
       </c>
       <c r="D42">
         <f>SUM(D2:D41)</f>
-        <v>823.97699999999986</v>
+        <v>4831.1084310059996</v>
       </c>
       <c r="E42">
         <f>SUM(E2:E41)</f>
-        <v>724.66626465089985</v>
+        <v>1997.52</v>
+      </c>
+      <c r="F42">
+        <f>SUM(F2:F41)</f>
+        <v>2197.2720000000004</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42" si="6">SUM(G2:G40)</f>
+        <f>SUM(G2:G41)</f>
+        <v>1932.4433724024002</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42" si="9">SUM(I2:I40)</f>
         <v>3940.2000000000003</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="3"/>
+      <c r="J42">
+        <f t="shared" si="5"/>
         <v>2167.11</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="4"/>
+      <c r="K42">
+        <f t="shared" si="6"/>
         <v>3053.6550000000002</v>
       </c>
-      <c r="K42" s="2">
-        <f>SUM(K2:K40)</f>
+      <c r="M42" s="2">
+        <f>SUM(M2:M40)</f>
         <v>1467.2823000000001</v>
       </c>
-      <c r="M42" s="3">
-        <f>SUM(M2:M41)</f>
+      <c r="O42" s="3">
+        <f>SUM(O2:O41)</f>
         <v>1274.0615673819004</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I44">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <f>B42+O42</f>
+        <v>6267.8615673819004</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="O43" s="3">
+        <f>O42*1.15</f>
+        <v>1465.1708024891855</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="K44">
         <f>202.445*1.1</f>
         <v>222.68950000000001</v>
       </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3066EE-4496-4869-B64F-FD9A836F0682}">
+  <dimension ref="A1:O50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="C2">
+        <f>B2*1.1</f>
+        <v>157.63000000000002</v>
+      </c>
+      <c r="D2">
+        <f>C2*N2</f>
+        <v>157.63000000000002</v>
+      </c>
+      <c r="E2">
+        <f>B2*1.15</f>
+        <v>164.79499999999999</v>
+      </c>
+      <c r="F2">
+        <f>E2*1.1</f>
+        <v>181.27449999999999</v>
+      </c>
+      <c r="G2">
+        <f>F2*N2</f>
+        <v>181.27449999999999</v>
+      </c>
+      <c r="I2">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="J2">
+        <f>I2*0.55</f>
+        <v>73.040000000000006</v>
+      </c>
+      <c r="K2">
+        <f>I2-I2*0.0225*10</f>
+        <v>102.92000000000002</v>
+      </c>
+      <c r="M2" s="2">
+        <f>44.803*1.1</f>
+        <v>49.283300000000004</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <f>M2*N2</f>
+        <v>49.283300000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>60.1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C41" si="0">B3*1.1</f>
+        <v>66.110000000000014</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D41" si="1">C3*N3</f>
+        <v>66.110000000000014</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E41" si="2">B3*1.15</f>
+        <v>69.114999999999995</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F41" si="3">E3*1.1</f>
+        <v>76.026499999999999</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G41" si="4">F3*N3</f>
+        <v>76.026499999999999</v>
+      </c>
+      <c r="I3">
+        <v>65.8</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J42" si="5">I3*0.55</f>
+        <v>36.190000000000005</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K42" si="6">I3-I3*0.0225*10</f>
+        <v>50.994999999999997</v>
+      </c>
+      <c r="M3" s="2">
+        <f>23.469*1.1</f>
+        <v>25.815900000000003</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O41" si="7">M3*N3</f>
+        <v>25.815900000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>44.1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>48.510000000000005</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>48.510000000000005</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>50.714999999999996</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>55.786500000000004</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>55.786500000000004</v>
+      </c>
+      <c r="I4">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>19.965</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>28.1325</v>
+      </c>
+      <c r="M4" s="2">
+        <f>10.186*1.1</f>
+        <v>11.204600000000001</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="7"/>
+        <v>11.204600000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>16.8</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>19.32</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>21.252000000000002</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>21.252000000000002</v>
+      </c>
+      <c r="I5">
+        <v>11.3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>6.2150000000000007</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>8.7575000000000003</v>
+      </c>
+      <c r="M5" s="2">
+        <f>2.667*1.1</f>
+        <v>2.9337</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="7"/>
+        <v>2.9337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>260.7</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>286.77000000000004</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>286.77000000000004</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>299.80499999999995</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>329.78549999999996</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>329.78549999999996</v>
+      </c>
+      <c r="I6">
+        <v>242.3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>133.26500000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>187.78250000000003</v>
+      </c>
+      <c r="M6" s="2">
+        <f>96.717*1.1</f>
+        <v>106.38870000000001</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="7"/>
+        <v>106.38870000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>184.3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>202.73000000000002</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>202.73000000000002</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>211.94499999999999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>233.1395</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>233.1395</v>
+      </c>
+      <c r="I7">
+        <v>171.6</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>94.38000000000001</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>132.99</v>
+      </c>
+      <c r="M7" s="2">
+        <f>39.865*1.1</f>
+        <v>43.851500000000009</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="7"/>
+        <v>43.851500000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>242</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>266.20000000000005</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>266.20000000000005</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>278.29999999999995</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>306.13</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>306.13</v>
+      </c>
+      <c r="I8">
+        <v>229.9</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>126.44500000000001</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>178.17250000000001</v>
+      </c>
+      <c r="M8" s="2">
+        <f>47.512*1.1</f>
+        <v>52.263200000000005</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="7"/>
+        <v>52.263200000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>233.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>256.85000000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>256.85000000000002</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>268.52499999999998</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>295.3775</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>295.3775</v>
+      </c>
+      <c r="I9">
+        <v>216.3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>118.96500000000002</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>167.63250000000002</v>
+      </c>
+      <c r="M9" s="2">
+        <f>64.775*1.1</f>
+        <v>71.252500000000012</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="7"/>
+        <v>71.252500000000012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>78.7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>86.570000000000007</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>86.570000000000007</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>90.504999999999995</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>99.555500000000009</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>99.555500000000009</v>
+      </c>
+      <c r="I10">
+        <v>88.4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>48.620000000000005</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>68.510000000000005</v>
+      </c>
+      <c r="M10" s="2">
+        <f>21.135*1.1</f>
+        <v>23.248500000000003</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="7"/>
+        <v>23.248500000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>78.760000000000005</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>78.760000000000005</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>82.339999999999989</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>90.573999999999998</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>90.573999999999998</v>
+      </c>
+      <c r="I11">
+        <v>72.2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>39.710000000000008</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>55.954999999999998</v>
+      </c>
+      <c r="M11" s="2">
+        <f>20.346*1.1</f>
+        <v>22.380600000000001</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="7"/>
+        <v>22.380600000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>149.6</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>164.56</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>164.56</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>172.04</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>189.244</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>189.244</v>
+      </c>
+      <c r="I12">
+        <v>149.1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>82.00500000000001</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>115.55249999999999</v>
+      </c>
+      <c r="M12" s="2">
+        <f>49.75*1.1</f>
+        <v>54.725000000000001</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="7"/>
+        <v>54.725000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>205.4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>225.94000000000003</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>225.94000000000003</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>236.20999999999998</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>259.83100000000002</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>259.83100000000002</v>
+      </c>
+      <c r="I13">
+        <v>221.4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>121.77000000000001</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>171.58500000000001</v>
+      </c>
+      <c r="M13" s="2">
+        <f>44.417*1.1</f>
+        <v>48.858700000000006</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="7"/>
+        <v>48.858700000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>23.1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>25.410000000000004</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>25.410000000000004</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>26.565000000000001</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>29.221500000000002</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>29.221500000000002</v>
+      </c>
+      <c r="I14">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>9.9550000000000018</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>14.027500000000002</v>
+      </c>
+      <c r="M14" s="2">
+        <f>1.824*1.1</f>
+        <v>2.0064000000000002</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="7"/>
+        <v>2.0064000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>82</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>90.2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>90.2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>94.3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>103.73</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>103.73</v>
+      </c>
+      <c r="I15">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>38.005000000000003</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>53.552499999999995</v>
+      </c>
+      <c r="M15" s="2">
+        <f>10.219*1.1</f>
+        <v>11.2409</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="7"/>
+        <v>11.2409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>84.5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>92.95</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>92.95</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>97.174999999999997</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>106.89250000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>106.89250000000001</v>
+      </c>
+      <c r="I16">
+        <v>71.8</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>39.49</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>55.644999999999996</v>
+      </c>
+      <c r="M16" s="2">
+        <f>7.958*1.1</f>
+        <v>8.7538</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="7"/>
+        <v>8.7538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>190.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>209.55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>209.55</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>219.07499999999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>240.98250000000002</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>240.98250000000002</v>
+      </c>
+      <c r="I17">
+        <v>164.8</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>90.640000000000015</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>127.72000000000001</v>
+      </c>
+      <c r="M17" s="2">
+        <f>53.183*1.1</f>
+        <v>58.501300000000008</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="7"/>
+        <v>58.501300000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>101.4</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>111.54000000000002</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>111.54000000000002</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>116.61</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>128.27100000000002</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>128.27100000000002</v>
+      </c>
+      <c r="I18">
+        <v>91.9</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>50.545000000000009</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>71.222499999999997</v>
+      </c>
+      <c r="M18" s="2">
+        <f>20.957*1.1</f>
+        <v>23.052700000000002</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="7"/>
+        <v>23.052700000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>63.9</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>70.290000000000006</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>70.290000000000006</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>73.484999999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>80.833500000000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>80.833500000000001</v>
+      </c>
+      <c r="I19">
+        <v>65.3</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>35.914999999999999</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>50.607500000000002</v>
+      </c>
+      <c r="M19" s="2">
+        <f>26.744*1.1</f>
+        <v>29.418400000000002</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="7"/>
+        <v>29.418400000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>155.32</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>155.32</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>162.37999999999997</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>178.61799999999997</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>178.61799999999997</v>
+      </c>
+      <c r="I20">
+        <v>133.6</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>73.48</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>103.53999999999999</v>
+      </c>
+      <c r="M20" s="2">
+        <f>54.133*1.1</f>
+        <v>59.546300000000009</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="7"/>
+        <v>59.546300000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>34.9</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>38.39</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>2.5277242869999998</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>40.134999999999998</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>44.148499999999999</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>2.9068829300499996</v>
+      </c>
+      <c r="M21" s="2">
+        <f>10.416*1.1</f>
+        <v>11.457600000000001</v>
+      </c>
+      <c r="N21">
+        <v>6.5843299999999993E-2</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="7"/>
+        <v>0.75440619407999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>43.7</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>48.070000000000007</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>46.392304123000009</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>50.255000000000003</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>55.280500000000011</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>53.351149741450008</v>
+      </c>
+      <c r="I22">
+        <v>49.8</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>27.39</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>38.594999999999999</v>
+      </c>
+      <c r="M22" s="2">
+        <f>20.95*1.1</f>
+        <v>23.045000000000002</v>
+      </c>
+      <c r="N22">
+        <v>0.96509889999999998</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="7"/>
+        <v>22.240704150500001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>21.3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>23.430000000000003</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>23.430000000000003</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>24.494999999999997</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>26.944499999999998</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>26.944499999999998</v>
+      </c>
+      <c r="I23">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>12.865000000000002</v>
+      </c>
+      <c r="M23" s="2">
+        <f>1.728*1.1</f>
+        <v>1.9008</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="7"/>
+        <v>1.9008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>128.4</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>141.24</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>141.24</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>147.66</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>162.42600000000002</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>162.42600000000002</v>
+      </c>
+      <c r="I24">
+        <v>113.9</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>62.64500000000001</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>88.272500000000008</v>
+      </c>
+      <c r="M24" s="2">
+        <f>14.902*1.1</f>
+        <v>16.392199999999999</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="7"/>
+        <v>16.392199999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>10.02239018</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>67.849999999999994</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>74.635000000000005</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>11.525748707</v>
+      </c>
+      <c r="M25" s="2">
+        <f>18.656*1.1</f>
+        <v>20.521599999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.15442819999999999</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="7"/>
+        <v>3.1691137491199997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>209.4</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>230.34000000000003</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>230.34000000000003</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>240.80999999999997</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>264.89100000000002</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>264.89100000000002</v>
+      </c>
+      <c r="I26">
+        <v>173.8</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>95.590000000000018</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>134.69499999999999</v>
+      </c>
+      <c r="M26" s="2">
+        <f>26.772*1.1</f>
+        <v>29.449200000000001</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="7"/>
+        <v>29.449200000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>154</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>169.4</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>169.4</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>177.1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>194.81</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>194.81</v>
+      </c>
+      <c r="I27">
+        <v>143</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>78.650000000000006</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>110.825</v>
+      </c>
+      <c r="M27" s="2">
+        <f>38.462*1.1</f>
+        <v>42.308200000000006</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="7"/>
+        <v>42.308200000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>52.3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>57.53</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>57.53</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>60.144999999999989</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>66.159499999999994</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>66.159499999999994</v>
+      </c>
+      <c r="I28">
+        <v>52.1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>28.655000000000005</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>40.377499999999998</v>
+      </c>
+      <c r="M28" s="2">
+        <f>27.415*1.1</f>
+        <v>30.156500000000001</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="7"/>
+        <v>30.156500000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>270.7</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>297.77000000000004</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>297.77000000000004</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>311.30499999999995</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>342.43549999999999</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>342.43549999999999</v>
+      </c>
+      <c r="I29">
+        <v>246.8</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>135.74</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>191.27</v>
+      </c>
+      <c r="M29" s="2">
+        <f>67.225*1.1</f>
+        <v>73.947500000000005</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="7"/>
+        <v>73.947500000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>106.3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>116.93</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>112.06769981000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>122.24499999999999</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>134.46950000000001</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>128.87785478150002</v>
+      </c>
+      <c r="I30">
+        <v>105.5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>58.025000000000006</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>81.762500000000003</v>
+      </c>
+      <c r="M30" s="2">
+        <f>25.817*1.1</f>
+        <v>28.398700000000002</v>
+      </c>
+      <c r="N30">
+        <v>0.95841699999999996</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="7"/>
+        <v>27.217796857900002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>278.7</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>306.57</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>306.57</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>320.50499999999994</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>352.55549999999994</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>352.55549999999994</v>
+      </c>
+      <c r="I31">
+        <v>254.4</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>139.92000000000002</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>197.16</v>
+      </c>
+      <c r="M31" s="2">
+        <f>72.284*1.1</f>
+        <v>79.512400000000014</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="7"/>
+        <v>79.512400000000014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>11.2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>12.32</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>12.32</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>12.879999999999999</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>14.167999999999999</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>14.167999999999999</v>
+      </c>
+      <c r="I32">
+        <v>11</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>6.0500000000000007</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="6"/>
+        <v>8.5250000000000004</v>
+      </c>
+      <c r="M32" s="2">
+        <f>3.357*1.1</f>
+        <v>3.6927000000000003</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="7"/>
+        <v>3.6927000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>86</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>98.899999999999991</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>108.79</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>108.79</v>
+      </c>
+      <c r="I33">
+        <v>83.4</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>45.870000000000005</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>64.635000000000005</v>
+      </c>
+      <c r="M33" s="2">
+        <f>23.081*1.1</f>
+        <v>25.389100000000003</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="7"/>
+        <v>25.389100000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>13.3</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>14.630000000000003</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>11.774247408000003</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>15.295</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>16.8245</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>13.5403845192</v>
+      </c>
+      <c r="I34">
+        <v>15.1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>8.3049999999999997</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="6"/>
+        <v>11.702500000000001</v>
+      </c>
+      <c r="M34" s="2">
+        <f>2.362*1.1</f>
+        <v>2.5982000000000003</v>
+      </c>
+      <c r="N34">
+        <v>0.80480160000000001</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="7"/>
+        <v>2.0910355171200004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>125.1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>137.61000000000001</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>137.61000000000001</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>143.86499999999998</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>158.25149999999999</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>158.25149999999999</v>
+      </c>
+      <c r="I35">
+        <v>109.6</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>60.28</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="6"/>
+        <v>84.94</v>
+      </c>
+      <c r="M35" s="2">
+        <f>22.782*1.1</f>
+        <v>25.060200000000002</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="7"/>
+        <v>25.060200000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>601.6</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>661.7600000000001</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>157.16522060800003</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>691.83999999999992</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>761.024</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>180.7400036992</v>
+      </c>
+      <c r="M36" s="2">
+        <f>202.445*1.1</f>
+        <v>222.68950000000001</v>
+      </c>
+      <c r="N36">
+        <v>0.23749580000000001</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="7"/>
+        <v>52.8878209541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>6.8</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>7.48</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>7.48</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>7.8199999999999994</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>8.6020000000000003</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>8.6020000000000003</v>
+      </c>
+      <c r="I37">
+        <v>5.9</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>3.2450000000000006</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="6"/>
+        <v>4.5724999999999998</v>
+      </c>
+      <c r="M37" s="2">
+        <f>0.08*1.1</f>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="7"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>128.9</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>141.79000000000002</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>141.79000000000002</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>148.23499999999999</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>163.05850000000001</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>163.05850000000001</v>
+      </c>
+      <c r="I38">
+        <v>108.7</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>59.785000000000004</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="6"/>
+        <v>84.242500000000007</v>
+      </c>
+      <c r="M38" s="2">
+        <f>31.807*1.1</f>
+        <v>34.987700000000004</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="7"/>
+        <v>34.987700000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>112</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>123.20000000000002</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>123.20000000000002</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>128.79999999999998</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>141.68</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>141.68</v>
+      </c>
+      <c r="I39">
+        <v>100.4</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>55.220000000000006</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="6"/>
+        <v>77.81</v>
+      </c>
+      <c r="M39" s="2">
+        <f>49.518*1.1</f>
+        <v>54.469800000000006</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="7"/>
+        <v>54.469800000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>110.5</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>121.55000000000001</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>121.55000000000001</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>127.07499999999999</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>139.7825</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>139.7825</v>
+      </c>
+      <c r="I40">
+        <v>98.2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>54.010000000000005</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="6"/>
+        <v>76.105000000000004</v>
+      </c>
+      <c r="M40" s="2">
+        <f>33.174*1.1</f>
+        <v>36.491400000000006</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="7"/>
+        <v>36.491400000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>63</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>69.300000000000011</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>11.958844590000002</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>72.449999999999989</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>79.694999999999993</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>13.752671278499999</v>
+      </c>
+      <c r="M41" s="2">
+        <f>37.556*1.1</f>
+        <v>41.311599999999999</v>
+      </c>
+      <c r="N41">
+        <v>0.17256630000000001</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="7"/>
+        <v>7.1289899590800001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42">
+        <f>SUM(B2:B41)</f>
+        <v>4993.8</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:D42" si="8">SUM(C2:C41)</f>
+        <v>5493.18</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="8"/>
+        <v>4831.1084310059996</v>
+      </c>
+      <c r="E42">
+        <f>SUM(E2:E41)</f>
+        <v>5742.869999999999</v>
+      </c>
+      <c r="F42">
+        <f>SUM(F2:F41)</f>
+        <v>6317.1570000000011</v>
+      </c>
+      <c r="G42">
+        <f>SUM(G2:G41)</f>
+        <v>5555.7746956569017</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42" si="9">SUM(I2:I40)</f>
+        <v>3940.2000000000003</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>2167.11</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="6"/>
+        <v>3053.6550000000002</v>
+      </c>
+      <c r="M42" s="2">
+        <f>SUM(M2:M40)</f>
+        <v>1467.2823000000001</v>
+      </c>
+      <c r="O42" s="3">
+        <f>SUM(O2:O41)</f>
+        <v>1274.0615673819004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <f>B42+O42</f>
+        <v>6267.8615673819004</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="O43" s="3">
+        <f>O42*1.15</f>
+        <v>1465.1708024891855</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="K44">
+        <f>202.445*1.1</f>
+        <v>222.68950000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>D42-G42</f>
+        <v>-724.66626465090212</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A42">
